--- a/R1_by_R2 (3 by 1).xlsx
+++ b/R1_by_R2 (3 by 1).xlsx
@@ -65,258 +65,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.4156177556268028</v>
+        <v>1.4156324027855176</v>
       </c>
       <c r="B1" t="n">
-        <v>1.4156088696571387</v>
+        <v>1.4156320835954497</v>
       </c>
       <c r="C1" t="n">
-        <v>1.415594786713405</v>
+        <v>1.4156315777137602</v>
       </c>
       <c r="D1" t="n">
-        <v>1.415572467678829</v>
+        <v>1.4156307759465105</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4155370967213856</v>
+        <v>1.4156295052340597</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4154810433799256</v>
+        <v>1.4156274912980944</v>
       </c>
       <c r="G1" t="n">
-        <v>1.4153922195075808</v>
+        <v>1.4156242994436523</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4152514800367022</v>
+        <v>1.4156192407428985</v>
       </c>
       <c r="I1" t="n">
-        <v>1.4150285155964584</v>
+        <v>1.4156112233621319</v>
       </c>
       <c r="J1" t="n">
-        <v>1.414675373152756</v>
+        <v>1.4155985169703988</v>
       </c>
       <c r="K1" t="n">
-        <v>1.4141162630406</v>
+        <v>1.4155783794513388</v>
       </c>
       <c r="L1" t="n">
-        <v>1.413231594462616</v>
+        <v>1.4155464655300418</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4118331475946893</v>
+        <v>1.4154958901343349</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4096259000718914</v>
+        <v>1.4154157454905596</v>
       </c>
       <c r="O1" t="n">
-        <v>1.406150421593119</v>
+        <v>1.4152887548148396</v>
       </c>
       <c r="P1" t="n">
-        <v>1.4006986211544958</v>
+        <v>1.4150875635400773</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3921970401132648</v>
+        <v>1.414768886068997</v>
       </c>
       <c r="R1" t="n">
-        <v>1.3790608687655477</v>
+        <v>1.4142642910253045</v>
       </c>
       <c r="S1" t="n">
-        <v>1.3590486141663018</v>
+        <v>1.4134657519510703</v>
       </c>
       <c r="T1" t="n">
-        <v>1.329206985055811</v>
+        <v>1.412203133489669</v>
       </c>
       <c r="U1" t="n">
-        <v>1.2860942957498365</v>
+        <v>1.4102094699573637</v>
       </c>
       <c r="V1" t="n">
-        <v>1.2265561177951445</v>
+        <v>1.407068305250541</v>
       </c>
       <c r="W1" t="n">
-        <v>1.1492074588580499</v>
+        <v>1.4021360162940069</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0561783923470311</v>
+        <v>1.3944325852806545</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9537838743509086</v>
+        <v>1.38250090876107</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.850803403213672</v>
+        <v>1.3642563122911295</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7549685723146737</v>
+        <v>1.336898929083756</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6702285647647902</v>
+        <v>1.2970528600855658</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5966384547158855</v>
+        <v>1.2413950353077252</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5322364715174598</v>
+        <v>1.1679879222737568</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.4750233305629293</v>
+        <v>1.0780534646390347</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.42380227626454053</v>
+        <v>0.9770272058338837</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3779614217295096</v>
+        <v>0.8734121858219006</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.33702508094009614</v>
+        <v>0.7754832381905971</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.30049864088328804</v>
+        <v>0.6881438941127848</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.26791054008628096</v>
+        <v>0.6121983602520599</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.23884059191143028</v>
+        <v>0.5459389045504266</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.21291357516991302</v>
+        <v>0.4872538080464241</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.18979287035091677</v>
+        <v>0.43475984621899477</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.16917700745482575</v>
+        <v>0.38775842198604676</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.15079627374496976</v>
+        <v>0.34576901194521403</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.13440953563454078</v>
+        <v>0.30830010399624586</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.27487053482501494</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.2450487262594771</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.2184501760699019</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.19472996089156794</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.1735790543785177</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.1547209363939542</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.137908350459115</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.12292034439931555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-75.87068061881652</v>
+        <v>-400.3038645872705</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.26801747794596</v>
+        <v>-317.97300206808336</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.87484598057824</v>
+        <v>-252.57536140306112</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.03118449718405</v>
+        <v>-200.62827975271122</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.212822048222343</v>
+        <v>-159.3653855924087</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.00340210313185</v>
+        <v>-126.58927934071195</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.072249967539385</v>
+        <v>-100.55451381804762</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.156762932101334</v>
+        <v>-79.87464281810661</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.04842528652042</v>
+        <v>-63.44838778869067</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.581703233273506</v>
+        <v>-50.400990727058314</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.625227890520823</v>
+        <v>-40.03763011465313</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.074796009146637</v>
+        <v>-31.80641911401258</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.8478140218270855</v>
+        <v>-25.269015535236417</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.8788863516272514</v>
+        <v>-20.077278422277175</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.116306920762757</v>
+        <v>-15.95472809076666</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.5192556023168233</v>
+        <v>-12.68182220445012</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.055529921986641</v>
+        <v>-10.084263604040736</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.6996574684131711</v>
+        <v>-8.023716873589722</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.4312403774576166</v>
+        <v>-6.390438547727939</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.2333967098518634</v>
+        <v>-5.097427075774534</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.0912303067448663</v>
+        <v>-4.075778247430797</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.9904599672770386</v>
+        <v>-3.2709934355608987</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.9167007574680677</v>
+        <v>-2.6400340939206632</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.8561445525069814</v>
+        <v>-2.1489476442858426</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.7978369727480042</v>
+        <v>-1.770907884387967</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7361726665082562</v>
+        <v>-1.4845202267764517</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.6712955070392018</v>
+        <v>-1.2722511878315974</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6067074856607286</v>
+        <v>-1.1188904011263532</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5459801698834151</v>
+        <v>-1.0101160217013088</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.490853990478579</v>
+        <v>-0.9315676800391195</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4413059896549649</v>
+        <v>-0.8691586750538246</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.39660841917690215</v>
+        <v>-0.8110517163716567</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.35614180698132325</v>
+        <v>-0.7503069565822263</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.3195304914314937</v>
+        <v>-0.6859080935969708</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.28647752452743974</v>
+        <v>-0.620903593760078</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.25668372830703</v>
+        <v>-0.5590871385663818</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.22985915622952163</v>
+        <v>-0.5026637547311866</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20573384016920676</v>
+        <v>-0.45192546433536424</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18405729147747105</v>
+        <v>-0.40620837939981236</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.16459788243114154</v>
+        <v>-0.3648355883407252</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14714241453672575</v>
+        <v>-0.3273892955939729</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.1314953984325206</v>
+        <v>-0.29356731482872356</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2630713033024239</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.23560762750739045</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.21090177455525067</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.1886989959588054</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.16876347642597642</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.1508779558928226</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.13484306090178566</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.1204764567477041</v>
       </c>
     </row>
   </sheetData>
@@ -334,258 +382,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.0010548111401878</v>
+        <v>1.0000379748818484</v>
       </c>
       <c r="B1" t="n">
-        <v>1.0016694429452067</v>
+        <v>1.0000601831207667</v>
       </c>
       <c r="C1" t="n">
-        <v>1.0026400817756953</v>
+        <v>1.000095376256188</v>
       </c>
       <c r="D1" t="n">
-        <v>1.0041697430597256</v>
+        <v>1.0001511421875922</v>
       </c>
       <c r="E1" t="n">
-        <v>1.0065724860394982</v>
+        <v>1.0002394965349455</v>
       </c>
       <c r="F1" t="n">
-        <v>1.010327242418857</v>
+        <v>1.0003794566990512</v>
       </c>
       <c r="G1" t="n">
-        <v>1.0161477848889462</v>
+        <v>1.0006010978374464</v>
       </c>
       <c r="H1" t="n">
-        <v>1.0250590609826296</v>
+        <v>1.0009519220119985</v>
       </c>
       <c r="I1" t="n">
-        <v>1.0384453755148708</v>
+        <v>1.0015068049518205</v>
       </c>
       <c r="J1" t="n">
-        <v>1.0579897797326252</v>
+        <v>1.0023833932717463</v>
       </c>
       <c r="K1" t="n">
-        <v>1.0853684176067637</v>
+        <v>1.0037655987037404</v>
       </c>
       <c r="L1" t="n">
-        <v>1.12156976593089</v>
+        <v>1.005938606082026</v>
       </c>
       <c r="M1" t="n">
-        <v>1.165922887219277</v>
+        <v>1.0093389728718098</v>
       </c>
       <c r="N1" t="n">
-        <v>1.215383990518836</v>
+        <v>1.0146213124277592</v>
       </c>
       <c r="O1" t="n">
-        <v>1.2648970761268528</v>
+        <v>1.0227350184849464</v>
       </c>
       <c r="P1" t="n">
-        <v>1.3089784523145769</v>
+        <v>1.034983750021534</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3434340300061989</v>
+        <v>1.052999166109951</v>
       </c>
       <c r="R1" t="n">
-        <v>1.365886702096883</v>
+        <v>1.0785036007788145</v>
       </c>
       <c r="S1" t="n">
-        <v>1.3748783259816542</v>
+        <v>1.1127180039067879</v>
       </c>
       <c r="T1" t="n">
-        <v>1.368239734170692</v>
+        <v>1.1554261940547073</v>
       </c>
       <c r="U1" t="n">
-        <v>1.3415833048685273</v>
+        <v>1.2041318757348727</v>
       </c>
       <c r="V1" t="n">
-        <v>1.288182691465607</v>
+        <v>1.2541251071344015</v>
       </c>
       <c r="W1" t="n">
-        <v>1.20261979037696</v>
+        <v>1.299848605477199</v>
       </c>
       <c r="X1" t="n">
-        <v>1.0888207859349455</v>
+        <v>1.3367190694937752</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.963957892856665</v>
+        <v>1.361988510369418</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8480725069367954</v>
+        <v>1.3741226186992272</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.750365905626485</v>
+        <v>1.3712599675625219</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6686553761076541</v>
+        <v>1.3495973163839396</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5974178835733056</v>
+        <v>1.3027915339766947</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.5333743763339855</v>
+        <v>1.22454096797511</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.47572341203583995</v>
+        <v>1.1159705010069498</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.42419895955057635</v>
+        <v>0.991673139398106</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3782428775021627</v>
+        <v>0.8724832768878149</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3372374562686047</v>
+        <v>0.7706137733250102</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3006536374011191</v>
+        <v>0.6858186936698135</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.26802247172431554</v>
+        <v>0.6126415204785365</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.23892140714208715</v>
+        <v>0.5471180832694812</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.21297181009671332</v>
+        <v>0.4880556889070195</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.18983474862447736</v>
+        <v>0.43520201490716137</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.16920707167834348</v>
+        <v>0.38805828617139976</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.15081782365274693</v>
+        <v>0.3459958261393183</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.13442496147142968</v>
+        <v>0.3084667068475668</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.27499090836103385</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.24513565120317649</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.21851284553983147</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.19477504690281186</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.1736114332911058</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.15474415305302752</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.13792497422285072</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.12293223265932332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-75.84841807897199</v>
+        <v>-400.29963586489856</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.24002854354938</v>
+        <v>-317.96767868184827</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.83968543676852</v>
+        <v>-252.56866017519218</v>
       </c>
       <c r="D2" t="n">
-        <v>-37.987069667584265</v>
+        <v>-200.61984444066925</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.157580764487324</v>
+        <v>-159.35476822618435</v>
       </c>
       <c r="F2" t="n">
-        <v>-23.93443983478621</v>
+        <v>-126.57591698161798</v>
       </c>
       <c r="G2" t="n">
-        <v>-18.986568394089268</v>
+        <v>-100.53769980460723</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.051087938375769</v>
+        <v>-79.85349156948868</v>
       </c>
       <c r="I2" t="n">
-        <v>-11.919535211648077</v>
+        <v>-63.421792481190145</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.427068608969794</v>
+        <v>-50.36757393013976</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.444025637140353</v>
+        <v>-39.995689322470135</v>
       </c>
       <c r="L2" t="n">
-        <v>-5.869152054400997</v>
+        <v>-31.753873054569983</v>
       </c>
       <c r="M2" t="n">
-        <v>-4.623733444601668</v>
+        <v>-25.20336492833267</v>
       </c>
       <c r="N2" t="n">
-        <v>-3.646029420813885</v>
+        <v>-19.99560910052554</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.8861552017703382</v>
+        <v>-15.853807865021528</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.302387744972524</v>
+        <v>-12.55837492182408</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.8595828008633315</v>
+        <v>-9.935530307235966</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.529034042226852</v>
+        <v>-7.848388309372646</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.2883723915325633</v>
+        <v>-6.18987779967693</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.1205709022106973</v>
+        <v>-4.876738256714975</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.011659992208483</v>
+        <v>-3.8439089965429782</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.9469262788308137</v>
+        <v>-3.0392459153327187</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.9068086052982202</v>
+        <v>-2.4194145583339153</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.8678837383603727</v>
+        <v>-1.9478426831394957</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.8136373933737856</v>
+        <v>-1.594375818574534</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7443159748735021</v>
+        <v>-1.3352759446822307</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.6710833466245069</v>
+        <v>-1.1524704799206236</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6032126445891689</v>
+        <v>-1.0315829792805475</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5431754157613459</v>
+        <v>-0.958460605265893</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.489495283568114</v>
+        <v>-0.9148433246832147</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.440645961578575</v>
+        <v>-0.8775586831369436</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.39613595219614206</v>
+        <v>-0.827336381550926</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.3557739109084418</v>
+        <v>-0.7605807246490062</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.31926550807158877</v>
+        <v>-0.6871970690213819</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.2862907340658786</v>
+        <v>-0.6176859297093933</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.25655125683711116</v>
+        <v>-0.5559614597194692</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.22976511957692902</v>
+        <v>-0.5010316233217562</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20566714619440504</v>
+        <v>-0.45117443827788406</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18401000578963245</v>
+        <v>-0.4057102102695808</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.16456436636313748</v>
+        <v>-0.36444374138721763</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.14711866388648895</v>
+        <v>-0.3271029743427227</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.13147857106184144</v>
+        <v>-0.2933654477034883</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2629283052353997</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.23550609991947613</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.21082975801610515</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.18864793342853292</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.16872728119212754</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.15085230547216377</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.13482488683742583</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.1204635819589086</v>
       </c>
     </row>
   </sheetData>
@@ -603,258 +699,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.7988983074891083</v>
+        <v>1.799960396926456</v>
       </c>
       <c r="B1" t="n">
-        <v>1.798254772634864</v>
+        <v>1.7999372344362161</v>
       </c>
       <c r="C1" t="n">
-        <v>1.7972361082132882</v>
+        <v>1.799900525992895</v>
       </c>
       <c r="D1" t="n">
-        <v>1.7956248324687907</v>
+        <v>1.7998423511252484</v>
       </c>
       <c r="E1" t="n">
-        <v>1.7930792039571344</v>
+        <v>1.7997501604597208</v>
       </c>
       <c r="F1" t="n">
-        <v>1.78906507156593</v>
+        <v>1.7996040739464398</v>
       </c>
       <c r="G1" t="n">
-        <v>1.7827549209008393</v>
+        <v>1.7993726073742005</v>
       </c>
       <c r="H1" t="n">
-        <v>1.772886113313575</v>
+        <v>1.7990059208357545</v>
       </c>
       <c r="I1" t="n">
-        <v>1.7575835148529964</v>
+        <v>1.7984251723688858</v>
       </c>
       <c r="J1" t="n">
-        <v>1.7341999729366764</v>
+        <v>1.7975057810668718</v>
       </c>
       <c r="K1" t="n">
-        <v>1.6993633629236111</v>
+        <v>1.7960512458075688</v>
       </c>
       <c r="L1" t="n">
-        <v>1.6497085014354709</v>
+        <v>1.7937525254409432</v>
       </c>
       <c r="M1" t="n">
-        <v>1.5840836840789423</v>
+        <v>1.7901258893738552</v>
       </c>
       <c r="N1" t="n">
-        <v>1.5073104614955388</v>
+        <v>1.784420130566671</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4320399515850075</v>
+        <v>1.7754842542081117</v>
       </c>
       <c r="P1" t="n">
-        <v>1.3725562060593142</v>
+        <v>1.7615960177828078</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3337535137950407</v>
+        <v>1.740288854629287</v>
       </c>
       <c r="R1" t="n">
-        <v>1.3089799201782057</v>
+        <v>1.7083242720784977</v>
       </c>
       <c r="S1" t="n">
-        <v>1.2877538881536121</v>
+        <v>1.6622092598318745</v>
       </c>
       <c r="T1" t="n">
-        <v>1.2622935478630284</v>
+        <v>1.600007786758541</v>
       </c>
       <c r="U1" t="n">
-        <v>1.228873011661445</v>
+        <v>1.5248784754954106</v>
       </c>
       <c r="V1" t="n">
-        <v>1.1861845642010587</v>
+        <v>1.447909773547326</v>
       </c>
       <c r="W1" t="n">
-        <v>1.13221849568398</v>
+        <v>1.3840093610381528</v>
       </c>
       <c r="X1" t="n">
-        <v>1.061567000963987</v>
+        <v>1.3408432118953344</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.9688750773328737</v>
+        <v>1.3138505622324685</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.8604237025548243</v>
+        <v>1.2926548593145701</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.7553347962911702</v>
+        <v>1.268594639216943</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.6671588249372665</v>
+        <v>1.237110046645396</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.5949341752480775</v>
+        <v>1.1965842311386714</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.532120561498416</v>
+        <v>1.1454721025592112</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.47515843810635194</v>
+        <v>1.0791622177268574</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.4237667895196674</v>
+        <v>0.9914460849853499</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.37790516982395705</v>
+        <v>0.8850974626750127</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.33699800338850067</v>
+        <v>0.7775740656744634</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3004825612781831</v>
+        <v>0.6852624199245527</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.2678998908087373</v>
+        <v>0.6100335446694863</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.23883378179576106</v>
+        <v>0.5455906647882639</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.21290923137456289</v>
+        <v>0.4874102189869348</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.1897901003288196</v>
+        <v>0.43475298055912176</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.1691752433340806</v>
+        <v>0.3876966278827794</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.15079515141590555</v>
+        <v>0.34573703931505095</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.1344088222749866</v>
+        <v>0.3082824676603249</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>0.27485880953346126</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>0.24504119510842698</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>0.21844537372563685</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>0.1947268976585137</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>0.1735771030040228</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>0.15471969465931418</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>0.13790756104824842</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>0.12291984296985597</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-75.89563038441091</v>
+        <v>-400.3085998955988</v>
       </c>
       <c r="B2" t="n">
-        <v>-60.299400203737044</v>
+        <v>-317.9789632830435</v>
       </c>
       <c r="C2" t="n">
-        <v>-47.91430029864508</v>
+        <v>-252.58286575888567</v>
       </c>
       <c r="D2" t="n">
-        <v>-38.08074645950142</v>
+        <v>-200.63772644036965</v>
       </c>
       <c r="E2" t="n">
-        <v>-30.275001370210795</v>
+        <v>-159.37727679790638</v>
       </c>
       <c r="F2" t="n">
-        <v>-24.081251808201635</v>
+        <v>-126.60424654925457</v>
       </c>
       <c r="G2" t="n">
-        <v>-19.169402014672627</v>
+        <v>-100.57335056698898</v>
       </c>
       <c r="H2" t="n">
-        <v>-15.277371157933791</v>
+        <v>-79.89834520835801</v>
       </c>
       <c r="I2" t="n">
-        <v>-12.19689791784609</v>
+        <v>-63.478204045552175</v>
       </c>
       <c r="J2" t="n">
-        <v>-9.762006478134198</v>
+        <v>-50.438480722978774</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.839411742589068</v>
+        <v>-40.08473458485002</v>
       </c>
       <c r="L2" t="n">
-        <v>-6.3203811832016665</v>
+        <v>-31.86553541191519</v>
       </c>
       <c r="M2" t="n">
-        <v>-5.114317048831006</v>
+        <v>-25.343070396156758</v>
       </c>
       <c r="N2" t="n">
-        <v>-4.145879638695405</v>
+        <v>-20.169774837879682</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.357740968463721</v>
+        <v>-16.06971650738679</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.714787553783934</v>
+        <v>-12.823694693913948</v>
       </c>
       <c r="Q2" t="n">
-        <v>-2.199066838529568</v>
+        <v>-10.25717895651568</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.7966970298628366</v>
+        <v>-8.230335744618193</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.4905620067739456</v>
+        <v>-6.629581307007935</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.2617408766348412</v>
+        <v>-5.360685867072658</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.0930773903148658</v>
+        <v>-4.344868029905349</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.9713821328851785</v>
+        <v>-3.520302255628992</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.8874381769542565</v>
+        <v>-2.8468898405295104</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.8322163856708444</v>
+        <v>-2.3039047417885294</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.7902662312424331</v>
+        <v>-1.8775672333880988</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.7415825824992435</v>
+        <v>-1.5515740485905702</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.6780819134760241</v>
+        <v>-1.3070807982000616</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.6089623323986828</v>
+        <v>-1.1262829878131513</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.5453561586705838</v>
+        <v>-0.995009856706733</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.4902158596181625</v>
+        <v>-0.9033217571962089</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.4412700015958137</v>
+        <v>-0.8427109404652063</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3966844590300011</v>
+        <v>-0.7995642252723559</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.35615497089600046</v>
+        <v>-0.7537855935630123</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.31953059928982597</v>
+        <v>-0.6932385704813925</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.28647939453986154</v>
+        <v>-0.6242063038658646</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.256684918122404</v>
+        <v>-0.5588047318295326</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.2298597994488212</v>
+        <v>-0.5018932364502998</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.20573421027459682</v>
+        <v>-0.4517927529025083</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.18405750342977958</v>
+        <v>-0.40629144085057717</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.1645980034333161</v>
+        <v>-0.364859434474039</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.1471424835209188</v>
+        <v>-0.3273893055370082</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.13149543770254735</v>
+        <v>-0.2935690804354878</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.2630726783766911</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.23560835865041738</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.21090219318437145</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.18869923614387282</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.168763613580563</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.1508780341135464</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.1348431054436988</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.12047648207765804</v>
       </c>
     </row>
   </sheetData>
